--- a/汇报/article notes.xlsx
+++ b/汇报/article notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D690728-8FC4-4906-B4B9-717A6CC8940A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF1FF4-8C54-4505-B366-480DF0792408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -808,25 +808,25 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="70" style="1" customWidth="1"/>
     <col min="9" max="9" width="47" style="1" customWidth="1"/>
-    <col min="10" max="10" width="49.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49.44140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="276" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
